--- a/Summer_practice/files/Сотрудники.xlsx
+++ b/Summer_practice/files/Сотрудники.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,17 +464,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Золотухина Полина Викторовна</t>
+          <t>Х Х Х</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+79963833254</t>
+          <t>+79565656556</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
@@ -482,72 +482,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>000</t>
+          <t>444</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Х Х Х</t>
+          <t>Золотухина П В</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+79565656556</t>
+          <t>+79963833254</t>
         </is>
       </c>
       <c r="D3" s="1" t="n">
-        <v>45149</v>
+        <v>45151</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>444</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Озарян Владислав Дмитриевич</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>+79528202990</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>45150</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>111</t>
+          <t>000</t>
         </is>
       </c>
     </row>

--- a/Summer_practice/files/Сотрудники.xlsx
+++ b/Summer_practice/files/Сотрудники.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,58 +464,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Х Х Х</t>
+          <t>G G G</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+79565656556</t>
+          <t>+79999999999</t>
         </is>
       </c>
       <c r="D2" s="1" t="n">
-        <v>45149</v>
+        <v>45162</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Золотухина П В</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+79963833254</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>45151</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
